--- a/data/origin/zhongyaodatabase.xlsx
+++ b/data/origin/zhongyaodatabase.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\待更新\格式整理\生物信息学\HPE-GCN\data\origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DD6E18-7DD2-4CDD-AC67-424050FDF5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867A3050-C69F-470E-AC5F-1A470B1295F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="360" windowWidth="15615" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="780" windowWidth="15345" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -137,16 +137,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -169,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -177,56 +169,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -501,86 +454,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4FF4C-21D9-4797-9ECE-377D463DE4E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A280DB67-1C5F-4E36-9599-65775009A719}">
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -955,10 +908,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>